--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>придумать и добавить сущность Image, внести ее в инициализатор БД. </t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>текущее актуальное время, мин</t>
+  </si>
+  <si>
+    <t>Пт, 02 августа</t>
+  </si>
+  <si>
+    <t>сделал отображение сохраненных картинок</t>
+  </si>
+  <si>
+    <t>50 мин</t>
   </si>
 </sst>
 </file>
@@ -435,7 +444,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +476,7 @@
       </c>
       <c r="C2">
         <f>SUM(C3:C6)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,6 +510,9 @@
       </c>
       <c r="B6">
         <v>25</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -567,24 +579,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
